--- a/input/individual_phenometrics_datafield_descriptions.xlsx
+++ b/input/individual_phenometrics_datafield_descriptions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\microclimates\analyses\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\Tree_Spotters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67BB244-5007-4F5D-9C9C-800203CF63BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA28497-BD95-41EA-AA20-D3A64CCA4E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>The taxonomic kingdom of the organism for which the series was recorded.</t>
   </si>
   <si>
-    <t>Plantae|Animalia</t>
-  </si>
-  <si>
     <t>Species_Functional_Type</t>
   </si>
   <si>
@@ -418,13 +415,16 @@
   </si>
   <si>
     <t>series =&gt; yesyesyesyesyes documented by various ppl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -436,8 +436,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,6 +462,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -469,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -480,6 +492,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -789,8 +807,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -816,7 +834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>10</v>
       </c>
@@ -827,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="62.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>20</v>
       </c>
@@ -838,7 +856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="54.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>30</v>
       </c>
@@ -969,8 +987,8 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
+      <c r="D15" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -978,13 +996,13 @@
         <v>150</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -992,13 +1010,13 @@
         <v>160</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>37</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1006,10 +1024,10 @@
         <v>164</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1017,10 +1035,10 @@
         <v>166</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1028,10 +1046,10 @@
         <v>170</v>
       </c>
       <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
         <v>43</v>
-      </c>
-      <c r="C20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1039,21 +1057,21 @@
         <v>180</v>
       </c>
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:4" ht="82.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>190</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1061,10 +1079,10 @@
         <v>200</v>
       </c>
       <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1072,13 +1090,13 @@
         <v>210</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1086,10 +1104,10 @@
         <v>220</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1097,13 +1115,13 @@
         <v>230</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1111,10 +1129,10 @@
         <v>240</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1122,10 +1140,10 @@
         <v>250</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1133,10 +1151,10 @@
         <v>260</v>
       </c>
       <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
         <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1144,10 +1162,10 @@
         <v>270</v>
       </c>
       <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1155,10 +1173,10 @@
         <v>280</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1166,10 +1184,10 @@
         <v>290</v>
       </c>
       <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1177,10 +1195,10 @@
         <v>300</v>
       </c>
       <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1188,10 +1206,10 @@
         <v>310</v>
       </c>
       <c r="B34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" t="s">
         <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1199,10 +1217,10 @@
         <v>320</v>
       </c>
       <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1210,10 +1228,10 @@
         <v>330</v>
       </c>
       <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1221,10 +1239,10 @@
         <v>340</v>
       </c>
       <c r="B37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1232,10 +1250,10 @@
         <v>350</v>
       </c>
       <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1243,10 +1261,10 @@
         <v>360</v>
       </c>
       <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
         <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1254,10 +1272,10 @@
         <v>370</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1265,10 +1283,10 @@
         <v>380</v>
       </c>
       <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s">
         <v>87</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1276,13 +1294,13 @@
         <v>390</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1290,10 +1308,10 @@
         <v>400</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1301,13 +1319,13 @@
         <v>410</v>
       </c>
       <c r="B44" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
         <v>93</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1315,10 +1333,10 @@
         <v>420</v>
       </c>
       <c r="B45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" t="s">
         <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1326,10 +1344,10 @@
         <v>430</v>
       </c>
       <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
         <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1337,10 +1355,10 @@
         <v>440</v>
       </c>
       <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
         <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1348,10 +1366,10 @@
         <v>450</v>
       </c>
       <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
         <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1359,10 +1377,10 @@
         <v>460</v>
       </c>
       <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
         <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1370,10 +1388,10 @@
         <v>470</v>
       </c>
       <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
         <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1381,10 +1399,10 @@
         <v>480</v>
       </c>
       <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
         <v>108</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1392,10 +1410,10 @@
         <v>490</v>
       </c>
       <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1403,10 +1421,10 @@
         <v>500</v>
       </c>
       <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1414,10 +1432,10 @@
         <v>510</v>
       </c>
       <c r="B54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1425,10 +1443,10 @@
         <v>520</v>
       </c>
       <c r="B55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" t="s">
         <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1436,10 +1454,10 @@
         <v>530</v>
       </c>
       <c r="B56" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" t="s">
         <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1447,10 +1465,10 @@
         <v>540</v>
       </c>
       <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
         <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1458,10 +1476,10 @@
         <v>550</v>
       </c>
       <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1469,10 +1487,10 @@
         <v>560</v>
       </c>
       <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
         <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -1480,10 +1498,10 @@
         <v>570</v>
       </c>
       <c r="B60" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" t="s">
         <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/input/individual_phenometrics_datafield_descriptions.xlsx
+++ b/input/individual_phenometrics_datafield_descriptions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\Tree_Spotters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\Tree_Spotters\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA28497-BD95-41EA-AA20-D3A64CCA4E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3226115-6659-4B54-89EF-E33702510BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Individual Phenometrics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -435,6 +436,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -481,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -498,6 +500,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -807,8 +812,8 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1289,14 +1294,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="59.7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>390</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>89</v>
       </c>
       <c r="E42" t="s">
